--- a/statistic_id250091_coffee-drinking-us-consumers-by-age-group-2018.xlsx
+++ b/statistic_id250091_coffee-drinking-us-consumers-by-age-group-2018.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11100" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>Statistic as Excel data file</t>
   </si>
@@ -118,9 +118,6 @@
     <t>18 to 24 years</t>
   </si>
   <si>
-    <t>in %</t>
-  </si>
-  <si>
     <t>25 to 39 years</t>
   </si>
   <si>
@@ -128,6 +125,9 @@
   </si>
   <si>
     <t>60 years and older</t>
+  </si>
+  <si>
+    <t>Age Group</t>
   </si>
 </sst>
 </file>
@@ -553,9 +553,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:C25"/>
+  <dimension ref="B3:C30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -690,6 +692,16 @@
       </c>
       <c r="C25" s="3" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B29" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B30" s="4" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -704,74 +716,61 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D9"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="100.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B4" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C5" s="6" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="7">
+      <c r="B2" s="7">
         <v>48</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
+      <c r="B3" s="7">
+        <v>63</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="7">
-        <v>63</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
+      <c r="B4" s="7">
+        <v>66</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="7">
-        <v>66</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="7">
+      <c r="B5" s="7">
         <v>72</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="C5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
